--- a/data.xlsx
+++ b/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="257">
   <si>
     <t>Name</t>
   </si>
@@ -2159,1332 +2159,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>34</v>
-      </c>
-      <c r="H57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B58" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>44</v>
-      </c>
-      <c r="H59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60" t="s">
-        <v>46</v>
-      </c>
-      <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>49</v>
-      </c>
-      <c r="H60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" t="s">
-        <v>53</v>
-      </c>
-      <c r="E61" t="s">
-        <v>51</v>
-      </c>
-      <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>54</v>
-      </c>
-      <c r="H61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D62" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" t="s">
-        <v>61</v>
-      </c>
-      <c r="D63" t="s">
-        <v>62</v>
-      </c>
-      <c r="E63" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" t="s">
-        <v>60</v>
-      </c>
-      <c r="G63" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64" t="s">
-        <v>65</v>
-      </c>
-      <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>68</v>
-      </c>
-      <c r="H64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" t="s">
-        <v>70</v>
-      </c>
-      <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>73</v>
-      </c>
-      <c r="H65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" t="s">
-        <v>76</v>
-      </c>
-      <c r="D66" t="s">
-        <v>77</v>
-      </c>
-      <c r="E66" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" t="s">
-        <v>75</v>
-      </c>
-      <c r="G66" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" t="s">
-        <v>82</v>
-      </c>
-      <c r="E67" t="s">
-        <v>80</v>
-      </c>
-      <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>83</v>
-      </c>
-      <c r="H67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" t="s">
-        <v>87</v>
-      </c>
-      <c r="E68" t="s">
-        <v>85</v>
-      </c>
-      <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>88</v>
-      </c>
-      <c r="H68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" t="s">
-        <v>91</v>
-      </c>
-      <c r="D69" t="s">
-        <v>92</v>
-      </c>
-      <c r="E69" t="s">
-        <v>90</v>
-      </c>
-      <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>93</v>
-      </c>
-      <c r="H69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>94</v>
-      </c>
-      <c r="B70" t="s">
-        <v>95</v>
-      </c>
-      <c r="C70" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" t="s">
-        <v>97</v>
-      </c>
-      <c r="E70" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" t="s">
-        <v>95</v>
-      </c>
-      <c r="G70" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>99</v>
-      </c>
-      <c r="B71" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" t="s">
-        <v>101</v>
-      </c>
-      <c r="D71" t="s">
-        <v>102</v>
-      </c>
-      <c r="E71" t="s">
-        <v>100</v>
-      </c>
-      <c r="F71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" t="s">
-        <v>103</v>
-      </c>
-      <c r="H71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>104</v>
-      </c>
-      <c r="B72" t="s">
-        <v>105</v>
-      </c>
-      <c r="C72" t="s">
-        <v>106</v>
-      </c>
-      <c r="D72" t="s">
-        <v>107</v>
-      </c>
-      <c r="E72" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" t="s">
-        <v>105</v>
-      </c>
-      <c r="G72" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>109</v>
-      </c>
-      <c r="B73" t="s">
-        <v>110</v>
-      </c>
-      <c r="C73" t="s">
-        <v>111</v>
-      </c>
-      <c r="D73" t="s">
-        <v>112</v>
-      </c>
-      <c r="E73" t="s">
-        <v>110</v>
-      </c>
-      <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>113</v>
-      </c>
-      <c r="H73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>114</v>
-      </c>
-      <c r="B74" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" t="s">
-        <v>116</v>
-      </c>
-      <c r="D74" t="s">
-        <v>117</v>
-      </c>
-      <c r="E74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" t="s">
-        <v>115</v>
-      </c>
-      <c r="G74" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>119</v>
-      </c>
-      <c r="B75" t="s">
-        <v>120</v>
-      </c>
-      <c r="C75" t="s">
-        <v>121</v>
-      </c>
-      <c r="D75" t="s">
-        <v>122</v>
-      </c>
-      <c r="E75" t="s">
-        <v>120</v>
-      </c>
-      <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="s">
-        <v>123</v>
-      </c>
-      <c r="H75" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>124</v>
-      </c>
-      <c r="B76" t="s">
-        <v>125</v>
-      </c>
-      <c r="C76" t="s">
-        <v>126</v>
-      </c>
-      <c r="D76" t="s">
-        <v>127</v>
-      </c>
-      <c r="E76" t="s">
-        <v>125</v>
-      </c>
-      <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>128</v>
-      </c>
-      <c r="H76" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>129</v>
-      </c>
-      <c r="B77" t="s">
-        <v>130</v>
-      </c>
-      <c r="C77" t="s">
-        <v>131</v>
-      </c>
-      <c r="D77" t="s">
-        <v>132</v>
-      </c>
-      <c r="E77" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" t="s">
-        <v>130</v>
-      </c>
-      <c r="G77" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>134</v>
-      </c>
-      <c r="B78" t="s">
-        <v>135</v>
-      </c>
-      <c r="C78" t="s">
-        <v>136</v>
-      </c>
-      <c r="D78" t="s">
-        <v>137</v>
-      </c>
-      <c r="E78" t="s">
-        <v>135</v>
-      </c>
-      <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>138</v>
-      </c>
-      <c r="H78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>139</v>
-      </c>
-      <c r="B79" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" t="s">
-        <v>141</v>
-      </c>
-      <c r="D79" t="s">
-        <v>142</v>
-      </c>
-      <c r="E79" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" t="s">
-        <v>140</v>
-      </c>
-      <c r="G79" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>144</v>
-      </c>
-      <c r="B80" t="s">
-        <v>145</v>
-      </c>
-      <c r="C80" t="s">
-        <v>146</v>
-      </c>
-      <c r="D80" t="s">
-        <v>147</v>
-      </c>
-      <c r="E80" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" t="s">
-        <v>145</v>
-      </c>
-      <c r="G80" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>149</v>
-      </c>
-      <c r="B81" t="s">
-        <v>150</v>
-      </c>
-      <c r="C81" t="s">
-        <v>151</v>
-      </c>
-      <c r="D81" t="s">
-        <v>152</v>
-      </c>
-      <c r="E81" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" t="s">
-        <v>150</v>
-      </c>
-      <c r="G81" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>154</v>
-      </c>
-      <c r="B82" t="s">
-        <v>155</v>
-      </c>
-      <c r="C82" t="s">
-        <v>156</v>
-      </c>
-      <c r="D82" t="s">
-        <v>157</v>
-      </c>
-      <c r="E82" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" t="s">
-        <v>155</v>
-      </c>
-      <c r="G82" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>159</v>
-      </c>
-      <c r="B83" t="s">
-        <v>160</v>
-      </c>
-      <c r="C83" t="s">
-        <v>161</v>
-      </c>
-      <c r="D83" t="s">
-        <v>162</v>
-      </c>
-      <c r="E83" t="s">
-        <v>160</v>
-      </c>
-      <c r="F83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>163</v>
-      </c>
-      <c r="H83" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>164</v>
-      </c>
-      <c r="B84" t="s">
-        <v>165</v>
-      </c>
-      <c r="C84" t="s">
-        <v>166</v>
-      </c>
-      <c r="D84" t="s">
-        <v>167</v>
-      </c>
-      <c r="E84" t="s">
-        <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>168</v>
-      </c>
-      <c r="H84" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>169</v>
-      </c>
-      <c r="B85" t="s">
-        <v>170</v>
-      </c>
-      <c r="C85" t="s">
-        <v>171</v>
-      </c>
-      <c r="D85" t="s">
-        <v>172</v>
-      </c>
-      <c r="E85" t="s">
-        <v>170</v>
-      </c>
-      <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>173</v>
-      </c>
-      <c r="H85" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>174</v>
-      </c>
-      <c r="B86" t="s">
-        <v>175</v>
-      </c>
-      <c r="C86" t="s">
-        <v>176</v>
-      </c>
-      <c r="D86" t="s">
-        <v>177</v>
-      </c>
-      <c r="E86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" t="s">
-        <v>175</v>
-      </c>
-      <c r="G86" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>179</v>
-      </c>
-      <c r="B87" t="s">
-        <v>180</v>
-      </c>
-      <c r="C87" t="s">
-        <v>181</v>
-      </c>
-      <c r="D87" t="s">
-        <v>182</v>
-      </c>
-      <c r="E87" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" t="s">
-        <v>180</v>
-      </c>
-      <c r="G87" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>184</v>
-      </c>
-      <c r="B88" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" t="s">
-        <v>186</v>
-      </c>
-      <c r="D88" t="s">
-        <v>187</v>
-      </c>
-      <c r="E88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" t="s">
-        <v>185</v>
-      </c>
-      <c r="G88" t="s">
-        <v>14</v>
-      </c>
-      <c r="H88" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>189</v>
-      </c>
-      <c r="B89" t="s">
-        <v>190</v>
-      </c>
-      <c r="C89" t="s">
-        <v>191</v>
-      </c>
-      <c r="D89" t="s">
-        <v>192</v>
-      </c>
-      <c r="E89" t="s">
-        <v>190</v>
-      </c>
-      <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" t="s">
-        <v>193</v>
-      </c>
-      <c r="H89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>194</v>
-      </c>
-      <c r="B90" t="s">
-        <v>195</v>
-      </c>
-      <c r="C90" t="s">
-        <v>196</v>
-      </c>
-      <c r="D90" t="s">
-        <v>197</v>
-      </c>
-      <c r="E90" t="s">
-        <v>195</v>
-      </c>
-      <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>198</v>
-      </c>
-      <c r="H90" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>199</v>
-      </c>
-      <c r="B91" t="s">
-        <v>200</v>
-      </c>
-      <c r="C91" t="s">
-        <v>201</v>
-      </c>
-      <c r="D91" t="s">
-        <v>202</v>
-      </c>
-      <c r="E91" t="s">
-        <v>200</v>
-      </c>
-      <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>203</v>
-      </c>
-      <c r="H91" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>204</v>
-      </c>
-      <c r="B92" t="s">
-        <v>205</v>
-      </c>
-      <c r="C92" t="s">
-        <v>206</v>
-      </c>
-      <c r="D92" t="s">
-        <v>207</v>
-      </c>
-      <c r="E92" t="s">
-        <v>205</v>
-      </c>
-      <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>208</v>
-      </c>
-      <c r="H92" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>209</v>
-      </c>
-      <c r="B93" t="s">
-        <v>210</v>
-      </c>
-      <c r="C93" t="s">
-        <v>131</v>
-      </c>
-      <c r="D93" t="s">
-        <v>211</v>
-      </c>
-      <c r="E93" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" t="s">
-        <v>210</v>
-      </c>
-      <c r="G93" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>213</v>
-      </c>
-      <c r="B94" t="s">
-        <v>214</v>
-      </c>
-      <c r="C94" t="s">
-        <v>215</v>
-      </c>
-      <c r="D94" t="s">
-        <v>216</v>
-      </c>
-      <c r="E94" t="s">
-        <v>214</v>
-      </c>
-      <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>217</v>
-      </c>
-      <c r="H94" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>218</v>
-      </c>
-      <c r="B95" t="s">
-        <v>219</v>
-      </c>
-      <c r="C95" t="s">
-        <v>156</v>
-      </c>
-      <c r="D95" t="s">
-        <v>220</v>
-      </c>
-      <c r="E95" t="s">
-        <v>219</v>
-      </c>
-      <c r="F95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" t="s">
-        <v>221</v>
-      </c>
-      <c r="H95" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>222</v>
-      </c>
-      <c r="B96" t="s">
-        <v>223</v>
-      </c>
-      <c r="C96" t="s">
-        <v>224</v>
-      </c>
-      <c r="D96" t="s">
-        <v>225</v>
-      </c>
-      <c r="E96" t="s">
-        <v>223</v>
-      </c>
-      <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" t="s">
-        <v>226</v>
-      </c>
-      <c r="H96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>227</v>
-      </c>
-      <c r="B97" t="s">
-        <v>228</v>
-      </c>
-      <c r="C97" t="s">
-        <v>229</v>
-      </c>
-      <c r="D97" t="s">
-        <v>230</v>
-      </c>
-      <c r="E97" t="s">
-        <v>228</v>
-      </c>
-      <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" t="s">
-        <v>231</v>
-      </c>
-      <c r="H97" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>232</v>
-      </c>
-      <c r="B98" t="s">
-        <v>233</v>
-      </c>
-      <c r="C98" t="s">
-        <v>234</v>
-      </c>
-      <c r="D98" t="s">
-        <v>235</v>
-      </c>
-      <c r="E98" t="s">
-        <v>233</v>
-      </c>
-      <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>236</v>
-      </c>
-      <c r="H98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>237</v>
-      </c>
-      <c r="B99" t="s">
-        <v>238</v>
-      </c>
-      <c r="C99" t="s">
-        <v>239</v>
-      </c>
-      <c r="D99" t="s">
-        <v>240</v>
-      </c>
-      <c r="E99" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" t="s">
-        <v>238</v>
-      </c>
-      <c r="G99" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>242</v>
-      </c>
-      <c r="B100" t="s">
-        <v>243</v>
-      </c>
-      <c r="C100" t="s">
-        <v>244</v>
-      </c>
-      <c r="D100" t="s">
-        <v>245</v>
-      </c>
-      <c r="E100" t="s">
-        <v>243</v>
-      </c>
-      <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>246</v>
-      </c>
-      <c r="H100" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>247</v>
-      </c>
-      <c r="B101" t="s">
-        <v>248</v>
-      </c>
-      <c r="C101" t="s">
-        <v>249</v>
-      </c>
-      <c r="D101" t="s">
-        <v>250</v>
-      </c>
-      <c r="E101" t="s">
-        <v>248</v>
-      </c>
-      <c r="F101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" t="s">
-        <v>251</v>
-      </c>
-      <c r="H101" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>252</v>
-      </c>
-      <c r="B102" t="s">
-        <v>253</v>
-      </c>
-      <c r="C102" t="s">
-        <v>254</v>
-      </c>
-      <c r="D102" t="s">
-        <v>255</v>
-      </c>
-      <c r="E102" t="s">
-        <v>253</v>
-      </c>
-      <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>256</v>
-      </c>
-      <c r="H102" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -827,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
